--- a/Simulador.xlsx
+++ b/Simulador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Tepedino\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D69906E-7A1F-4C9D-A212-D3A2A172FE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F38FB9-DC6E-43AE-A68F-A2E4034D5331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="154" xr2:uid="{5D3328F8-97F4-412F-B371-78D9B19D42CB}"/>
   </bookViews>
@@ -419,7 +419,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="171" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -755,9 +755,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -765,11 +764,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -777,7 +772,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -789,120 +784,103 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -910,8 +888,21 @@
     <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -920,11 +911,11 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1020,6 +1011,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7A55-4FB3-B16F-4540843A854B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1062,6 +1058,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7A55-4FB3-B16F-4540843A854B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1104,6 +1105,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7A55-4FB3-B16F-4540843A854B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1146,6 +1152,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7A55-4FB3-B16F-4540843A854B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1188,6 +1199,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7A55-4FB3-B16F-4540843A854B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1230,6 +1246,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7A55-4FB3-B16F-4540843A854B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1240,7 +1261,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1317,22 +1338,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.03</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,6 +1436,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000D-7A55-4FB3-B16F-4540843A854B}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -1457,6 +1483,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000F-7A55-4FB3-B16F-4540843A854B}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -1499,6 +1530,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000011-7A55-4FB3-B16F-4540843A854B}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -1541,6 +1577,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000013-7A55-4FB3-B16F-4540843A854B}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -1583,6 +1624,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000015-7A55-4FB3-B16F-4540843A854B}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="5"/>
@@ -1625,6 +1671,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000017-7A55-4FB3-B16F-4540843A854B}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -1739,7 +1790,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Simulador!$D$44</c15:sqref>
@@ -1792,6 +1843,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000019-7A55-4FB3-B16F-4540843A854B}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -1834,6 +1890,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001B-7A55-4FB3-B16F-4540843A854B}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -1876,6 +1937,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001D-7A55-4FB3-B16F-4540843A854B}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -1918,6 +1984,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001F-7A55-4FB3-B16F-4540843A854B}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -1960,6 +2031,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000021-7A55-4FB3-B16F-4540843A854B}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="5"/>
@@ -2002,6 +2078,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000023-7A55-4FB3-B16F-4540843A854B}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -2052,13 +2133,13 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Simulador!$B$45:$B$50</c15:sqref>
@@ -2090,7 +2171,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Simulador!$D$45:$D$50</c15:sqref>
@@ -2103,7 +2184,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-9453-44CE-BC05-F64D210A6F0D}"/>
                   </c:ext>
@@ -2836,12 +2917,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5E1B4BA-D82D-45EF-A97A-BEF65A6647E7}" name="Tabela1" displayName="Tabela1" ref="E2:H32" totalsRowShown="0" tableBorderDxfId="2">
   <autoFilter ref="E2:H32" xr:uid="{E5E1B4BA-D82D-45EF-A97A-BEF65A6647E7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BE13B5AD-D6F2-435E-90D7-875984FD3D06}" name="Chave" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{BE13B5AD-D6F2-435E-90D7-875984FD3D06}" name="Chave" dataDxfId="1">
       <calculatedColumnFormula>F3&amp;" - "&amp;G3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{AA5CB6A7-484B-4D56-A0ED-6478D73A176B}" name="Perfil de Investidor"/>
     <tableColumn id="3" xr3:uid="{94B4D2FD-74DE-45E9-A30F-3CAF6D4F88CD}" name="Tipos de Fundos Imobiliários (FIIs)"/>
-    <tableColumn id="4" xr3:uid="{75D5D750-F037-45A1-AD29-595DC6D79130}" name="Percentual" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{75D5D750-F037-45A1-AD29-595DC6D79130}" name="Percentual" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3177,565 +3258,478 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A2:L51"/>
+  <dimension ref="A13:L51"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="13" hidden="1"/>
-    <col min="9" max="9" width="15" style="13" hidden="1"/>
-    <col min="10" max="12" width="0" style="13" hidden="1"/>
-    <col min="13" max="16384" width="9.140625" style="13" hidden="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
     </row>
     <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="7">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4">
         <v>5000</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="8">
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26">
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17">
         <f>F15*30%</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="14" t="s">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B19" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="9">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="10">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="11">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="8">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32">
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23">
         <f>FV(Taxa_Mesal,Qnt_Anos*12,Aporte*-1,0,0)</f>
         <v>16755.382799697527</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25">
         <f>Patrimonio*Rendimento_Carteira</f>
         <v>100.53229679818516</v>
       </c>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B27" s="14" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37" t="s">
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
         <v>1</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41">
-        <f>FV(Taxa_Mesal,A29*12,Aporte*-1,0,0)</f>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31">
+        <f t="shared" ref="E29:E38" si="0">FV(Taxa_Mesal,A29*12,Aporte*-1,0,0)</f>
         <v>2547.6772001113118</v>
       </c>
-      <c r="F29" s="42">
-        <f>$E29*Rendimento_Carteira</f>
+      <c r="F29" s="32">
+        <f t="shared" ref="F29:F38" si="1">$E29*Rendimento_Carteira</f>
         <v>15.28606320066787</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
         <v>2</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="43">
-        <f>FV(Taxa_Mesal,A30*12,Aporte*-1,0,0)</f>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="33">
+        <f t="shared" si="0"/>
         <v>5445.5254595290435</v>
       </c>
-      <c r="F30" s="44">
-        <f>$E30*Rendimento_Carteira</f>
+      <c r="F30" s="34">
+        <f t="shared" si="1"/>
         <v>32.673152757174265</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
         <v>3</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="43">
-        <f>FV(Taxa_Mesal,A31*12,Aporte*-1,0,0)</f>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="33">
+        <f t="shared" si="0"/>
         <v>8741.6748046044213</v>
       </c>
-      <c r="F31" s="44">
-        <f>$E31*Rendimento_Carteira</f>
+      <c r="F31" s="34">
+        <f t="shared" si="1"/>
         <v>52.450048827626532</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="39">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
         <v>4</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="43">
-        <f>FV(Taxa_Mesal,A32*12,Aporte*-1,0,0)</f>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="33">
+        <f t="shared" si="0"/>
         <v>12490.870598322032</v>
       </c>
-      <c r="F32" s="44">
-        <f>$E32*Rendimento_Carteira</f>
+      <c r="F32" s="34">
+        <f t="shared" si="1"/>
         <v>74.945223589932198</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
+      <c r="A33" s="29">
         <v>5</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="43">
-        <f>FV(Taxa_Mesal,A33*12,Aporte*-1,0,0)</f>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="33">
+        <f t="shared" si="0"/>
         <v>16755.382799697527</v>
       </c>
-      <c r="F33" s="44">
-        <f>$E33*Rendimento_Carteira</f>
+      <c r="F33" s="34">
+        <f t="shared" si="1"/>
         <v>100.53229679818516</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
+      <c r="A34" s="29">
         <v>10</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="43">
-        <f>FV(Taxa_Mesal,A34*12,Aporte*-1,0,0)</f>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="33">
+        <f t="shared" si="0"/>
         <v>48656.842506034438</v>
       </c>
-      <c r="F34" s="44">
-        <f>$E34*Rendimento_Carteira</f>
+      <c r="F34" s="34">
+        <f t="shared" si="1"/>
         <v>291.94105503620665</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
+      <c r="A35" s="29">
         <v>15</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="43">
-        <f>FV(Taxa_Mesal,A35*12,Aporte*-1,0,0)</f>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="33">
+        <f t="shared" si="0"/>
         <v>109395.71929334418</v>
       </c>
-      <c r="F35" s="44">
-        <f>$E35*Rendimento_Carteira</f>
+      <c r="F35" s="34">
+        <f t="shared" si="1"/>
         <v>656.37431576006509</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="39">
+      <c r="A36" s="29">
         <v>20</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="43">
-        <f>FV(Taxa_Mesal,A36*12,Aporte*-1,0,0)</f>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="33">
+        <f t="shared" si="0"/>
         <v>225039.68001941612</v>
       </c>
-      <c r="F36" s="44">
-        <f>$E36*Rendimento_Carteira</f>
+      <c r="F36" s="34">
+        <f t="shared" si="1"/>
         <v>1350.2380801164968</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="39">
+      <c r="A37" s="29">
         <v>25</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="43">
-        <f>FV(Taxa_Mesal,A37*12,Aporte*-1,0,0)</f>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="33">
+        <f t="shared" si="0"/>
         <v>445220.33464764646</v>
       </c>
-      <c r="F37" s="44">
-        <f>$E37*Rendimento_Carteira</f>
+      <c r="F37" s="34">
+        <f t="shared" si="1"/>
         <v>2671.322007885879</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39">
+      <c r="A38" s="29">
         <v>30</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="45">
-        <f>FV(Taxa_Mesal,A38*12,Aporte*-1,0,0)</f>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="35">
+        <f t="shared" si="0"/>
         <v>864433.93100094295</v>
       </c>
-      <c r="F38" s="46">
-        <f>$E38*Rendimento_Carteira</f>
+      <c r="F38" s="36">
+        <f t="shared" si="1"/>
         <v>5186.6035860056581</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="50"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53">
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42">
         <f>Aporte</f>
         <v>200</v>
       </c>
-      <c r="F42" s="54"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="55"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
+      <c r="B43" s="44"/>
+      <c r="F43" s="45"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="60" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="61" t="s">
+      <c r="F44" s="49" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="63">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="51">
         <f>VLOOKUP($E$41&amp;" - "&amp;$B45,Tabela1[],4,0)</f>
-        <v>0.25</v>
-      </c>
-      <c r="F45" s="64">
-        <f>Aporte*$E45</f>
-        <v>50</v>
+        <v>0.3</v>
+      </c>
+      <c r="F45" s="52">
+        <f t="shared" ref="F45:F50" si="2">Aporte*$E45</f>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="66">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="54">
         <f>VLOOKUP($E$41&amp;" - "&amp;$B46,Tabela1[],4,0)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F46" s="67">
-        <f>Aporte*$E46</f>
-        <v>80</v>
+        <v>0.3</v>
+      </c>
+      <c r="F46" s="55">
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="66">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="54">
         <f>VLOOKUP($E$41&amp;" - "&amp;$B47,Tabela1[],4,0)</f>
-        <v>0.15</v>
-      </c>
-      <c r="F47" s="67">
-        <f>Aporte*$E47</f>
-        <v>30</v>
+        <v>0.2</v>
+      </c>
+      <c r="F47" s="55">
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="66">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="54">
         <f>VLOOKUP($E$41&amp;" - "&amp;$B48,Tabela1[],4,0)</f>
-        <v>0.12</v>
-      </c>
-      <c r="F48" s="67">
-        <f>Aporte*$E48</f>
-        <v>24</v>
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="55">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="66">
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="54">
         <f>VLOOKUP($E$41&amp;" - "&amp;$B49,Tabela1[],4,0)</f>
         <v>0.05</v>
       </c>
-      <c r="F49" s="67">
-        <f>Aporte*$E49</f>
+      <c r="F49" s="55">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="70">
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58">
         <f>VLOOKUP($E$41&amp;" - "&amp;$B50,Tabela1[],4,0)</f>
-        <v>0.03</v>
-      </c>
-      <c r="F50" s="71">
-        <f>Aporte*$E50</f>
-        <v>6</v>
+        <v>0.05</v>
+      </c>
+      <c r="F50" s="59">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="74">
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="62">
         <f>SUM(E45:E50)</f>
         <v>1</v>
       </c>
-      <c r="F51" s="75">
+      <c r="F51" s="63">
         <f>SUM(F45:F50)</f>
         <v>200</v>
       </c>
@@ -3751,7 +3745,7 @@
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B39F5C25-49C0-4BEC-9F64-A77D8055BE03}">
           <x14:formula1>
             <xm:f>Dados!$B$3:$B$7</xm:f>
@@ -3820,7 +3814,7 @@
       <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0.3</v>
       </c>
     </row>
@@ -3829,7 +3823,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E3:E32" si="0">F4&amp;" - "&amp;G4</f>
+        <f t="shared" ref="E4:E32" si="0">F4&amp;" - "&amp;G4</f>
         <v>Conservador - FIIs de papel</v>
       </c>
       <c r="F4" t="s">
@@ -3838,7 +3832,7 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -3856,7 +3850,7 @@
       <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.1</v>
       </c>
     </row>
@@ -3874,7 +3868,7 @@
       <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -3892,22 +3886,22 @@
       <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Conservador - Fundos de Desenvolvimento</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.05</v>
       </c>
     </row>
@@ -3922,7 +3916,7 @@
       <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>0.25</v>
       </c>
     </row>
@@ -3937,7 +3931,7 @@
       <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -3952,7 +3946,7 @@
       <c r="G11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>0.15</v>
       </c>
     </row>
@@ -3967,7 +3961,7 @@
       <c r="G12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>0.12</v>
       </c>
     </row>
@@ -3982,22 +3976,22 @@
       <c r="G13" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="2" t="str">
+      <c r="E14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Moderado - Fundos de Desenvolvimento</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>0.03</v>
       </c>
     </row>
@@ -4012,7 +4006,7 @@
       <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>0.3</v>
       </c>
     </row>
@@ -4027,7 +4021,7 @@
       <c r="G16" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>0.35</v>
       </c>
     </row>
@@ -4042,7 +4036,7 @@
       <c r="G17" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>0.2</v>
       </c>
     </row>
@@ -4057,7 +4051,7 @@
       <c r="G18" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>0.05</v>
       </c>
     </row>
@@ -4072,22 +4066,22 @@
       <c r="G19" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="2" t="str">
+      <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Balanceado - Fundos de Desenvolvimento</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>0.05</v>
       </c>
     </row>
@@ -4102,7 +4096,7 @@
       <c r="G21" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>0.3</v>
       </c>
     </row>
@@ -4117,7 +4111,7 @@
       <c r="G22" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>0.3</v>
       </c>
     </row>
@@ -4132,7 +4126,7 @@
       <c r="G23" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>0.2</v>
       </c>
     </row>
@@ -4147,7 +4141,7 @@
       <c r="G24" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>0.1</v>
       </c>
     </row>
@@ -4162,22 +4156,22 @@
       <c r="G25" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="26" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="5" t="str">
+      <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Arrojado - Fundos de Desenvolvimento</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>0.05</v>
       </c>
     </row>
@@ -4192,7 +4186,7 @@
       <c r="G27" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>0.3</v>
       </c>
     </row>
@@ -4207,7 +4201,7 @@
       <c r="G28" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>0.3</v>
       </c>
     </row>
@@ -4222,7 +4216,7 @@
       <c r="G29" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>0.2</v>
       </c>
     </row>
@@ -4237,7 +4231,7 @@
       <c r="G30" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>0.1</v>
       </c>
     </row>
@@ -4252,22 +4246,22 @@
       <c r="G31" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="1" t="str">
+      <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo - Fundos de Desenvolvimento</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="2">
         <v>0.05</v>
       </c>
     </row>
@@ -4281,6 +4275,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0b448c17-369b-4aaf-bcf1-8e36d46b6ae1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100295C3A4F5B51A4459379B6E602A8CB32" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="117ad87fee6e7deeee21e8e906a8e527">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f4837b42-caed-457a-870f-4121b7973448" xmlns:ns4="0b448c17-369b-4aaf-bcf1-8e36d46b6ae1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a1ef1cd4cebfb644fa8c6e316b701bf5" ns3:_="" ns4:_="">
     <xsd:import namespace="f4837b42-caed-457a-870f-4121b7973448"/>
@@ -4519,24 +4530,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA98B9-3DDF-4746-9236-0BD7105A45A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f4837b42-caed-457a-870f-4121b7973448"/>
+    <ds:schemaRef ds:uri="0b448c17-369b-4aaf-bcf1-8e36d46b6ae1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0b448c17-369b-4aaf-bcf1-8e36d46b6ae1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC30560-4ABF-4CB1-8B6E-30BCAD382663}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D77C0F4F-FE73-450B-B7AC-41446B68EC13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4553,29 +4572,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC30560-4ABF-4CB1-8B6E-30BCAD382663}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA98B9-3DDF-4746-9236-0BD7105A45A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f4837b42-caed-457a-870f-4121b7973448"/>
-    <ds:schemaRef ds:uri="0b448c17-369b-4aaf-bcf1-8e36d46b6ae1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>